--- a/input/total_samples.xlsx
+++ b/input/total_samples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="100" windowWidth="32400" windowHeight="19820" tabRatio="500"/>
+    <workbookView xWindow="-26580" yWindow="1080" windowWidth="32400" windowHeight="19820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>female</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>male phenotype, female genotype</t>
   </si>
 </sst>
 </file>
@@ -315,13 +318,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -674,18 +677,18 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -720,13 +723,13 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -749,10 +752,10 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -786,19 +789,19 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -806,10 +809,10 @@
       <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -818,7 +821,7 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
@@ -838,13 +841,13 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -855,19 +858,19 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -878,7 +881,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
@@ -901,19 +904,19 @@
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -929,7 +932,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
@@ -940,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
@@ -951,7 +954,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="4">
@@ -962,7 +965,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="4">
@@ -973,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="4">
@@ -984,7 +987,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4">
@@ -995,7 +998,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="4">
@@ -1006,7 +1009,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="4">
@@ -1017,7 +1020,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4">
@@ -1028,7 +1031,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="4">
@@ -1039,7 +1042,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="4">
@@ -1050,7 +1053,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="4">
@@ -1061,7 +1064,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="4">
@@ -1072,7 +1075,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="4">
@@ -1083,7 +1086,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="4">
@@ -1094,7 +1097,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="4">
@@ -1105,7 +1108,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="4">
@@ -1116,7 +1119,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="4">
@@ -1127,7 +1130,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="4">
@@ -1137,8 +1140,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
@@ -1148,8 +1151,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="4">
@@ -1159,8 +1162,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="4">
@@ -1170,8 +1173,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="4">
@@ -1181,8 +1184,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="4">
@@ -1192,8 +1195,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="4">
@@ -1203,8 +1206,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="4">
@@ -1214,8 +1217,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="4">
@@ -1225,8 +1228,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="4">
@@ -1236,8 +1239,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="4">
@@ -1247,8 +1250,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="4">
@@ -1258,8 +1261,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="4">
@@ -1268,9 +1271,12 @@
       <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="4">
@@ -1280,8 +1286,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="4">
